--- a/src/main/resources/Client sharing Tracker_Dravit.xlsx
+++ b/src/main/resources/Client sharing Tracker_Dravit.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="540" windowWidth="25040" windowHeight="16040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="555" yWindow="540" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
   <si>
     <t>Day</t>
   </si>
@@ -223,9 +223,6 @@
     <t>5+ Yrs</t>
   </si>
   <si>
-    <t>22+6</t>
-  </si>
-  <si>
     <t>Bangalore</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>https://in.linkedin.com/in/sampathpraveen</t>
+  </si>
+  <si>
+    <t>RBS</t>
   </si>
 </sst>
 </file>
@@ -455,6 +455,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -782,21 +787,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="20">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -819,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -828,22 +833,22 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>10</v>
@@ -858,10 +863,10 @@
         <v>13</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>14</v>
@@ -885,12 +890,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16">
+    <row r="2" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1">
         <v>2015</v>
@@ -957,12 +962,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16">
+    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1">
         <v>2015</v>
@@ -1027,12 +1032,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="16">
+    <row r="4" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1">
         <v>2015</v>
@@ -1044,7 +1049,7 @@
         <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>47</v>
@@ -1103,12 +1108,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="16">
+    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1">
         <v>2015</v>
@@ -1160,18 +1165,21 @@
       <c r="T5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>67</v>
+      <c r="U5" s="1">
+        <v>22</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>44</v>
@@ -1192,11 +1200,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="20">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1228,22 +1238,22 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>10</v>
@@ -1258,10 +1268,10 @@
         <v>13</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>14</v>
@@ -1285,16 +1295,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16">
+    <row r="2" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>50</v>
@@ -1323,16 +1333,16 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="16">
+    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>50</v>
@@ -1348,10 +1358,10 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>54</v>
@@ -1360,29 +1370,29 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="16">
+    <row r="4" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>50</v>
@@ -1398,10 +1408,10 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>54</v>
@@ -1410,29 +1420,29 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>94</v>
-      </c>
     </row>
-    <row r="5" spans="1:29" ht="16">
+    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>50</v>
@@ -1456,23 +1466,23 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:29" ht="16">
+    <row r="6" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>50</v>
@@ -1488,10 +1498,10 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>54</v>
@@ -1500,27 +1510,27 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="16">
+    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>50</v>
@@ -1536,10 +1546,10 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>54</v>
@@ -1548,13 +1558,13 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
